--- a/Журнал Заметки.xlsx
+++ b/Журнал Заметки.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24300" windowHeight="13050" activeTab="2"/>
+    <workbookView windowWidth="28695" windowHeight="11985" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Start room" sheetId="1" r:id="rId1"/>
@@ -186,9 +186,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -227,21 +227,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -255,54 +241,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -318,7 +259,45 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -326,15 +305,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -349,15 +320,44 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -372,43 +372,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -420,73 +390,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -504,7 +408,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -516,25 +486,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -552,7 +552,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -618,11 +618,76 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -645,89 +710,24 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -745,125 +745,125 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -899,6 +899,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3226,7 +3229,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
     </row>
@@ -3241,8 +3244,8 @@
   <sheetPr/>
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -3404,31 +3407,35 @@
         <v>25</v>
       </c>
       <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
+      <c r="G8" s="15" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="9" ht="26" customHeight="1" spans="1:7">
       <c r="A9" s="8"/>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="16" t="s">
         <v>15</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="10"/>
+      <c r="G9" s="11" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="10" ht="26" customHeight="1" spans="1:7">
       <c r="A10" s="8"/>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="16" t="s">
         <v>28</v>
       </c>
       <c r="D10" s="8"/>
@@ -3436,14 +3443,16 @@
         <v>29</v>
       </c>
       <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
+      <c r="G10" s="11" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="11" ht="26" customHeight="1" spans="1:7">
       <c r="A11" s="8"/>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="16" t="s">
         <v>19</v>
       </c>
       <c r="D11" s="8"/>
@@ -3459,10 +3468,10 @@
     </row>
     <row r="12" ht="26" customHeight="1" spans="1:7">
       <c r="A12" s="8"/>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="16" t="s">
         <v>21</v>
       </c>
       <c r="D12" s="8"/>
@@ -3478,10 +3487,10 @@
     </row>
     <row r="13" ht="26" customHeight="1" spans="1:7">
       <c r="A13" s="8"/>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="16" t="s">
         <v>22</v>
       </c>
       <c r="D13" s="8"/>
@@ -3510,14 +3519,16 @@
         <v>32</v>
       </c>
       <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
+      <c r="G14" s="15" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="15" ht="26" customHeight="1" spans="1:7">
       <c r="A15" s="8"/>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="16" t="s">
         <v>33</v>
       </c>
       <c r="D15" s="8"/>
@@ -3527,14 +3538,16 @@
       <c r="F15" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G15" s="10"/>
+      <c r="G15" s="11" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="16" ht="26" customHeight="1" spans="1:7">
       <c r="A16" s="8"/>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="16" t="s">
         <v>28</v>
       </c>
       <c r="D16" s="8"/>
@@ -3542,14 +3555,16 @@
         <v>35</v>
       </c>
       <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
+      <c r="G16" s="11" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="17" ht="26" customHeight="1" spans="1:7">
       <c r="A17" s="8"/>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="16" t="s">
         <v>36</v>
       </c>
       <c r="D17" s="8"/>
@@ -3557,14 +3572,16 @@
         <v>37</v>
       </c>
       <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
+      <c r="G17" s="11" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="18" ht="26" customHeight="1" spans="1:7">
       <c r="A18" s="8"/>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="16" t="s">
         <v>19</v>
       </c>
       <c r="D18" s="8"/>
@@ -3580,10 +3597,10 @@
     </row>
     <row r="19" ht="26" customHeight="1" spans="1:7">
       <c r="A19" s="8"/>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="16" t="s">
         <v>21</v>
       </c>
       <c r="D19" s="8"/>
@@ -3599,10 +3616,10 @@
     </row>
     <row r="20" ht="26" customHeight="1" spans="1:7">
       <c r="A20" s="8"/>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="16" t="s">
         <v>22</v>
       </c>
       <c r="D20" s="8"/>
@@ -3631,14 +3648,16 @@
         <v>34</v>
       </c>
       <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
+      <c r="G21" s="15" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="22" ht="26" customHeight="1" spans="1:7">
       <c r="A22" s="8"/>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="16" t="s">
         <v>39</v>
       </c>
       <c r="D22" s="8"/>
@@ -3646,14 +3665,16 @@
         <v>40</v>
       </c>
       <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
+      <c r="G22" s="11" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="23" ht="26" customHeight="1" spans="1:7">
       <c r="A23" s="8"/>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="16" t="s">
         <v>41</v>
       </c>
       <c r="D23" s="8"/>
@@ -3661,14 +3682,16 @@
         <v>42</v>
       </c>
       <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
+      <c r="G23" s="11" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="24" ht="26" customHeight="1" spans="1:7">
       <c r="A24" s="8"/>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="16" t="s">
         <v>36</v>
       </c>
       <c r="D24" s="8"/>
@@ -3676,21 +3699,23 @@
         <v>37</v>
       </c>
       <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
+      <c r="G24" s="11" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="25" ht="26" customHeight="1" spans="1:7">
       <c r="A25" s="8"/>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="16" t="s">
         <v>19</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F25" s="17" t="s">
+      <c r="F25" s="18" t="s">
         <v>17</v>
       </c>
       <c r="G25" s="11" t="s">
@@ -3699,17 +3724,17 @@
     </row>
     <row r="26" ht="26" customHeight="1" spans="1:7">
       <c r="A26" s="8"/>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="16" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F26" s="17" t="s">
+      <c r="F26" s="18" t="s">
         <v>17</v>
       </c>
       <c r="G26" s="11" t="s">
@@ -3718,17 +3743,17 @@
     </row>
     <row r="27" ht="26" customHeight="1" spans="1:7">
       <c r="A27" s="8"/>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C27" s="16" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F27" s="17" t="s">
+      <c r="F27" s="18" t="s">
         <v>17</v>
       </c>
       <c r="G27" s="11" t="s">
@@ -3749,10 +3774,12 @@
       <c r="E28" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="F28" s="18" t="s">
+      <c r="F28" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="G28" s="14"/>
+      <c r="G28" s="15" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -3766,7 +3793,7 @@
   <sheetPr/>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>

--- a/Журнал Заметки.xlsx
+++ b/Журнал Заметки.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72">
   <si>
     <t>Добавить музыку</t>
   </si>
@@ -42,6 +42,12 @@
     <t>Релиз в коде</t>
   </si>
   <si>
+    <t>Единый стиль</t>
+  </si>
+  <si>
+    <t>Музыка</t>
+  </si>
+  <si>
     <t>1 уровень</t>
   </si>
   <si>
@@ -162,22 +168,70 @@
     <t>Больше денег ур.1</t>
   </si>
   <si>
+    <t>наименование</t>
+  </si>
+  <si>
+    <t>отображение</t>
+  </si>
+  <si>
+    <t>релиз в коде</t>
+  </si>
+  <si>
+    <t>баланс</t>
+  </si>
+  <si>
     <t>меньше монстров ур.2</t>
   </si>
   <si>
     <t>Больше денег ур.2</t>
   </si>
   <si>
+    <t>меньше монстров</t>
+  </si>
+  <si>
     <t>меньше монстров ур.3</t>
   </si>
   <si>
     <t>Больше денег ур.3</t>
   </si>
   <si>
+    <t xml:space="preserve">больше денег </t>
+  </si>
+  <si>
     <t>меньше монстров ур.4</t>
   </si>
   <si>
     <t>Больше денег ур.4</t>
+  </si>
+  <si>
+    <t>бстрее шарик</t>
+  </si>
+  <si>
+    <t xml:space="preserve">больше сердец </t>
+  </si>
+  <si>
+    <t>бстрее шарик ур.1</t>
+  </si>
+  <si>
+    <t>больше сердец ур.1</t>
+  </si>
+  <si>
+    <t>бстрее шарик ур.2</t>
+  </si>
+  <si>
+    <t>больше сердец ур.2</t>
+  </si>
+  <si>
+    <t>бстрее шарик ур.3</t>
+  </si>
+  <si>
+    <t>больше сердец ур.3</t>
+  </si>
+  <si>
+    <t>бстрее шарик ур.4</t>
+  </si>
+  <si>
+    <t>больше сердец ур.4</t>
   </si>
 </sst>
 </file>
@@ -190,8 +244,16 @@
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -220,6 +282,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -241,17 +326,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -273,8 +349,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -282,22 +375,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -322,21 +399,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -372,6 +434,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -396,6 +464,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -415,6 +507,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -451,60 +567,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -557,7 +619,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -567,11 +629,67 @@
     </border>
     <border>
       <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
         <color rgb="FF000000"/>
       </left>
       <right style="thick">
         <color rgb="FF000000"/>
       </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
       <top style="thick">
         <color rgb="FF000000"/>
       </top>
@@ -597,8 +715,52 @@
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
       <right style="medium">
         <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -615,6 +777,74 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -642,6 +872,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -663,21 +908,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -688,21 +918,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -718,16 +933,16 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -739,184 +954,225 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1010,7 +1266,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2964180" y="358140"/>
+          <a:off x="2964180" y="415290"/>
           <a:ext cx="390525" cy="301625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1052,7 +1308,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2982595" y="697865"/>
+          <a:off x="2982595" y="755015"/>
           <a:ext cx="367030" cy="305435"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1094,7 +1350,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2897505" y="1018540"/>
+          <a:off x="2897505" y="1075690"/>
           <a:ext cx="530225" cy="300990"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1136,7 +1392,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3070860" y="1390015"/>
+          <a:off x="3070860" y="1447165"/>
           <a:ext cx="246380" cy="246380"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1178,7 +1434,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3075940" y="1696085"/>
+          <a:off x="3075940" y="1753235"/>
           <a:ext cx="246380" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1220,7 +1476,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3054985" y="2044065"/>
+          <a:off x="3054985" y="2101215"/>
           <a:ext cx="244475" cy="246380"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1262,7 +1518,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3040380" y="4013835"/>
+          <a:off x="3040380" y="4070985"/>
           <a:ext cx="244475" cy="246380"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1304,7 +1560,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3034665" y="3349625"/>
+          <a:off x="3034665" y="3406775"/>
           <a:ext cx="246380" cy="246380"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1346,7 +1602,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3039745" y="5674360"/>
+          <a:off x="3039745" y="5731510"/>
           <a:ext cx="246380" cy="246380"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1388,7 +1644,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3051810" y="7966710"/>
+          <a:off x="3051810" y="8023860"/>
           <a:ext cx="246380" cy="246380"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1430,7 +1686,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3039745" y="3695065"/>
+          <a:off x="3039745" y="3752215"/>
           <a:ext cx="246380" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1472,7 +1728,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3040380" y="6000750"/>
+          <a:off x="3040380" y="6057900"/>
           <a:ext cx="246380" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1514,7 +1770,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3040380" y="8312150"/>
+          <a:off x="3040380" y="8369300"/>
           <a:ext cx="246380" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1556,7 +1812,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3021330" y="6330950"/>
+          <a:off x="3021330" y="6388100"/>
           <a:ext cx="244475" cy="246380"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1598,7 +1854,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3034030" y="8636635"/>
+          <a:off x="3034030" y="8693785"/>
           <a:ext cx="244475" cy="246380"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1640,7 +1896,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3030855" y="2348865"/>
+          <a:off x="3030855" y="2406015"/>
           <a:ext cx="292735" cy="292735"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1682,7 +1938,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3016250" y="2681605"/>
+          <a:off x="3016250" y="2738755"/>
           <a:ext cx="292735" cy="292735"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1724,7 +1980,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2873375" y="3070225"/>
+          <a:off x="2873375" y="3127375"/>
           <a:ext cx="586740" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1766,7 +2022,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2947035" y="4329430"/>
+          <a:off x="2947035" y="4386580"/>
           <a:ext cx="417830" cy="306070"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1808,7 +2064,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2984500" y="4650740"/>
+          <a:off x="2984500" y="4707890"/>
           <a:ext cx="318135" cy="311150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1850,7 +2106,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2986405" y="6628765"/>
+          <a:off x="2986405" y="6685915"/>
           <a:ext cx="318135" cy="311150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1892,7 +2148,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2877185" y="4990465"/>
+          <a:off x="2877185" y="5047615"/>
           <a:ext cx="575310" cy="280035"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1934,7 +2190,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3011805" y="5328285"/>
+          <a:off x="3011805" y="5385435"/>
           <a:ext cx="287020" cy="281305"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1976,7 +2232,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3016885" y="7631430"/>
+          <a:off x="3016885" y="7688580"/>
           <a:ext cx="287020" cy="281305"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2018,7 +2274,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3016250" y="6960870"/>
+          <a:off x="3016250" y="7018020"/>
           <a:ext cx="245110" cy="309245"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2060,7 +2316,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2910205" y="7291705"/>
+          <a:off x="2910205" y="7348855"/>
           <a:ext cx="536575" cy="304165"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2102,7 +2358,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2889250" y="8968740"/>
+          <a:off x="2889250" y="9025890"/>
           <a:ext cx="567690" cy="276225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2144,7 +2400,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4086225" y="342900"/>
+          <a:off x="4086225" y="400050"/>
           <a:ext cx="337820" cy="336550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2186,7 +2442,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4599305" y="382905"/>
+          <a:off x="4599305" y="440055"/>
           <a:ext cx="635000" cy="269875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2228,7 +2484,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4086225" y="673100"/>
+          <a:off x="4086225" y="730250"/>
           <a:ext cx="1212850" cy="326390"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2270,7 +2526,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4304030" y="2371090"/>
+          <a:off x="4304030" y="2428240"/>
           <a:ext cx="788035" cy="265430"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2312,7 +2568,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4086225" y="2983865"/>
+          <a:off x="4086225" y="3041015"/>
           <a:ext cx="520065" cy="315595"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2354,7 +2610,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4718685" y="2992120"/>
+          <a:off x="4718685" y="3049270"/>
           <a:ext cx="512445" cy="316230"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2396,7 +2652,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4086225" y="4304665"/>
+          <a:off x="4086225" y="4361815"/>
           <a:ext cx="477520" cy="332740"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2438,7 +2694,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4725670" y="4313555"/>
+          <a:off x="4725670" y="4370705"/>
           <a:ext cx="437515" cy="332740"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2480,7 +2736,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4109720" y="4987290"/>
+          <a:off x="4109720" y="5044440"/>
           <a:ext cx="320675" cy="303530"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2522,7 +2778,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4483100" y="4980305"/>
+          <a:off x="4483100" y="5037455"/>
           <a:ext cx="638175" cy="324485"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2564,7 +2820,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4098925" y="5310505"/>
+          <a:off x="4098925" y="5367655"/>
           <a:ext cx="562610" cy="300990"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2606,7 +2862,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4759960" y="5381625"/>
+          <a:off x="4759960" y="5438775"/>
           <a:ext cx="533400" cy="219710"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2648,7 +2904,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4093210" y="6621145"/>
+          <a:off x="4093210" y="6678295"/>
           <a:ext cx="1212850" cy="325755"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2690,7 +2946,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4622165" y="6969125"/>
+          <a:off x="4622165" y="7026275"/>
           <a:ext cx="635000" cy="269875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2732,7 +2988,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4086225" y="6945630"/>
+          <a:off x="4086225" y="7002780"/>
           <a:ext cx="449580" cy="325755"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2774,7 +3030,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4267200" y="7388860"/>
+          <a:off x="4267200" y="7446010"/>
           <a:ext cx="375920" cy="217805"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2816,7 +3072,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4909185" y="7387590"/>
+          <a:off x="4909185" y="7444740"/>
           <a:ext cx="356235" cy="229235"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2858,7 +3114,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4334510" y="7301230"/>
+          <a:off x="4334510" y="7358380"/>
           <a:ext cx="787400" cy="121285"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2900,7 +3156,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4109720" y="7631430"/>
+          <a:off x="4109720" y="7688580"/>
           <a:ext cx="562610" cy="300990"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2942,7 +3198,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4772025" y="7700645"/>
+          <a:off x="4772025" y="7757795"/>
           <a:ext cx="533400" cy="219710"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3229,7 +3485,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
     </row>
@@ -3242,546 +3498,633 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.2857142857143" customWidth="1"/>
     <col min="2" max="2" width="14.2857142857143" customWidth="1"/>
     <col min="3" max="3" width="17.4285714285714" customWidth="1"/>
-    <col min="6" max="6" width="18.4857142857143" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.14285714285714" style="1"/>
+    <col min="6" max="6" width="18.4857142857143" style="4" customWidth="1"/>
+    <col min="7" max="7" width="9.14285714285714" style="4"/>
+    <col min="8" max="8" width="9.36190476190476" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" spans="1:7">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="31.5" spans="1:9">
+      <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="7" t="s">
         <v>7</v>
       </c>
+      <c r="H1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="33" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" ht="26" customHeight="1" spans="1:7">
-      <c r="A2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="4" t="s">
+    <row r="2" ht="26" customHeight="1" spans="1:9">
+      <c r="A2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5" t="s">
+      <c r="B2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="7" t="s">
+      <c r="C2" s="9" t="s">
         <v>12</v>
       </c>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="11"/>
+      <c r="G2" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="34"/>
     </row>
-    <row r="3" ht="26" customHeight="1" spans="1:7">
-      <c r="A3" s="8"/>
-      <c r="B3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8" t="s">
+    <row r="3" ht="26" customHeight="1" spans="1:9">
+      <c r="A3" s="14"/>
+      <c r="B3" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="16"/>
+      <c r="G3" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="10"/>
-      <c r="G3" s="11" t="s">
-        <v>12</v>
-      </c>
+      <c r="H3" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="34"/>
     </row>
-    <row r="4" ht="26" customHeight="1" spans="1:7">
-      <c r="A4" s="8"/>
-      <c r="B4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="10" t="s">
+    <row r="4" ht="26" customHeight="1" spans="1:9">
+      <c r="A4" s="14"/>
+      <c r="B4" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="11" t="s">
-        <v>12</v>
-      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="19"/>
+      <c r="I4" s="34"/>
     </row>
-    <row r="5" ht="26" customHeight="1" spans="1:7">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="9" t="s">
+    <row r="5" ht="26" customHeight="1" spans="1:9">
+      <c r="A5" s="14"/>
+      <c r="B5" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8" t="s">
+      <c r="G5" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="34"/>
+    </row>
+    <row r="6" ht="26" customHeight="1" spans="1:9">
+      <c r="A6" s="14"/>
+      <c r="B6" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="C6" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="34"/>
+    </row>
+    <row r="7" ht="26" customHeight="1" spans="1:9">
+      <c r="A7" s="14"/>
+      <c r="B7" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="35"/>
+    </row>
+    <row r="8" ht="26" customHeight="1" spans="1:9">
+      <c r="A8" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="23"/>
+      <c r="G8" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="25"/>
+      <c r="I8" s="34"/>
+    </row>
+    <row r="9" ht="26" customHeight="1" spans="1:9">
+      <c r="A9" s="14"/>
+      <c r="B9" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="11" t="s">
-        <v>12</v>
-      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="19"/>
+      <c r="I9" s="34"/>
     </row>
-    <row r="6" ht="26" customHeight="1" spans="1:7">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="9" t="s">
+    <row r="10" ht="26" customHeight="1" spans="1:9">
+      <c r="A10" s="14"/>
+      <c r="B10" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="16"/>
+      <c r="G10" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="19"/>
+      <c r="I10" s="34"/>
+    </row>
+    <row r="11" ht="26" customHeight="1" spans="1:9">
+      <c r="A11" s="14"/>
+      <c r="B11" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8" t="s">
+      <c r="D11" s="14"/>
+      <c r="E11" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="19"/>
+      <c r="I11" s="34"/>
+    </row>
+    <row r="12" ht="26" customHeight="1" spans="1:9">
+      <c r="A12" s="14"/>
+      <c r="B12" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>12</v>
-      </c>
+      <c r="C12" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="19"/>
+      <c r="I12" s="34"/>
     </row>
-    <row r="7" ht="26" customHeight="1" spans="1:7">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="9" t="s">
+    <row r="13" ht="26" customHeight="1" spans="1:9">
+      <c r="A13" s="14"/>
+      <c r="B13" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8" t="s">
+      <c r="F13" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="28"/>
+      <c r="I13" s="35"/>
+    </row>
+    <row r="14" ht="26" customHeight="1" spans="1:9">
+      <c r="A14" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="23"/>
+      <c r="G14" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="25"/>
+      <c r="I14" s="34"/>
+    </row>
+    <row r="15" ht="26" customHeight="1" spans="1:9">
+      <c r="A15" s="14"/>
+      <c r="B15" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="34"/>
+    </row>
+    <row r="16" ht="26" customHeight="1" spans="1:9">
+      <c r="A16" s="14"/>
+      <c r="B16" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="16"/>
+      <c r="G16" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="19"/>
+      <c r="I16" s="34"/>
+    </row>
+    <row r="17" ht="26" customHeight="1" spans="1:9">
+      <c r="A17" s="14"/>
+      <c r="B17" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="16"/>
+      <c r="G17" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="19"/>
+      <c r="I17" s="34"/>
+    </row>
+    <row r="18" ht="26" customHeight="1" spans="1:9">
+      <c r="A18" s="14"/>
+      <c r="B18" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>12</v>
-      </c>
+      <c r="C18" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="19"/>
+      <c r="I18" s="34"/>
     </row>
-    <row r="8" ht="26" customHeight="1" spans="1:7">
-      <c r="A8" s="12" t="s">
+    <row r="19" ht="26" customHeight="1" spans="1:9">
+      <c r="A19" s="14"/>
+      <c r="B19" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="12" t="s">
+      <c r="D19" s="14"/>
+      <c r="E19" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="19"/>
+      <c r="I19" s="34"/>
+    </row>
+    <row r="20" ht="26" customHeight="1" spans="1:9">
+      <c r="A20" s="14"/>
+      <c r="B20" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="14"/>
-      <c r="G8" s="15" t="s">
-        <v>12</v>
-      </c>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" s="28"/>
+      <c r="I20" s="35"/>
     </row>
-    <row r="9" ht="26" customHeight="1" spans="1:7">
-      <c r="A9" s="8"/>
-      <c r="B9" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>12</v>
-      </c>
+    <row r="21" ht="26" customHeight="1" spans="1:9">
+      <c r="A21" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" s="23"/>
+      <c r="G21" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21" s="34"/>
     </row>
-    <row r="10" ht="26" customHeight="1" spans="1:7">
-      <c r="A10" s="8"/>
-      <c r="B10" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="11" t="s">
-        <v>12</v>
-      </c>
+    <row r="22" ht="26" customHeight="1" spans="1:9">
+      <c r="A22" s="14"/>
+      <c r="B22" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" s="16"/>
+      <c r="G22" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22" s="34"/>
     </row>
-    <row r="11" ht="26" customHeight="1" spans="1:7">
-      <c r="A11" s="8"/>
-      <c r="B11" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="16" t="s">
+    <row r="23" ht="26" customHeight="1" spans="1:9">
+      <c r="A23" s="14"/>
+      <c r="B23" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" s="16"/>
+      <c r="G23" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I23" s="34"/>
+    </row>
+    <row r="24" ht="26" customHeight="1" spans="1:9">
+      <c r="A24" s="14"/>
+      <c r="B24" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F24" s="16"/>
+      <c r="G24" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" s="19"/>
+      <c r="I24" s="34"/>
+    </row>
+    <row r="25" ht="26" customHeight="1" spans="1:9">
+      <c r="A25" s="14"/>
+      <c r="B25" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8" t="s">
+      <c r="G25" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" s="19"/>
+      <c r="I25" s="34"/>
+    </row>
+    <row r="26" ht="26" customHeight="1" spans="1:9">
+      <c r="A26" s="14"/>
+      <c r="B26" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>12</v>
-      </c>
+      <c r="C26" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="G26" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" s="19"/>
+      <c r="I26" s="34"/>
     </row>
-    <row r="12" ht="26" customHeight="1" spans="1:7">
-      <c r="A12" s="8"/>
-      <c r="B12" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8" t="s">
+    <row r="27" ht="26" customHeight="1" spans="1:9">
+      <c r="A27" s="14"/>
+      <c r="B27" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>12</v>
-      </c>
+      <c r="C27" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H27" s="28"/>
+      <c r="I27" s="35"/>
     </row>
-    <row r="13" ht="26" customHeight="1" spans="1:7">
-      <c r="A13" s="8"/>
-      <c r="B13" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" ht="26" customHeight="1" spans="1:7">
-      <c r="A14" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="14"/>
-      <c r="G14" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" ht="26" customHeight="1" spans="1:7">
-      <c r="A15" s="8"/>
-      <c r="B15" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" ht="26" customHeight="1" spans="1:7">
-      <c r="A16" s="8"/>
-      <c r="B16" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F16" s="10"/>
-      <c r="G16" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" ht="26" customHeight="1" spans="1:7">
-      <c r="A17" s="8"/>
-      <c r="B17" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="16" t="s">
+    <row r="28" ht="26" customHeight="1" spans="1:9">
+      <c r="A28" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F17" s="10"/>
-      <c r="G17" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" ht="26" customHeight="1" spans="1:7">
-      <c r="A18" s="8"/>
-      <c r="B18" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="16" t="s">
+      <c r="F28" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" ht="26" customHeight="1" spans="1:7">
-      <c r="A19" s="8"/>
-      <c r="B19" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" ht="26" customHeight="1" spans="1:7">
-      <c r="A20" s="8"/>
-      <c r="B20" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" ht="26" customHeight="1" spans="1:7">
-      <c r="A21" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F21" s="14"/>
-      <c r="G21" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" ht="26" customHeight="1" spans="1:7">
-      <c r="A22" s="8"/>
-      <c r="B22" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F22" s="10"/>
-      <c r="G22" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" ht="26" customHeight="1" spans="1:7">
-      <c r="A23" s="8"/>
-      <c r="B23" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F23" s="10"/>
-      <c r="G23" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" ht="26" customHeight="1" spans="1:7">
-      <c r="A24" s="8"/>
-      <c r="B24" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F24" s="10"/>
-      <c r="G24" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" ht="26" customHeight="1" spans="1:7">
-      <c r="A25" s="8"/>
-      <c r="B25" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F25" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="G25" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" ht="26" customHeight="1" spans="1:7">
-      <c r="A26" s="8"/>
-      <c r="B26" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F26" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="G26" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" ht="26" customHeight="1" spans="1:7">
-      <c r="A27" s="8"/>
-      <c r="B27" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F27" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="G27" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" ht="26" customHeight="1" spans="1:7">
-      <c r="A28" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F28" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="G28" s="15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G28" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="H28" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="I28" s="36"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="I2:I7"/>
+    <mergeCell ref="I8:I13"/>
+    <mergeCell ref="I14:I20"/>
+    <mergeCell ref="I21:I27"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -3791,48 +4134,121 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
     <col min="2" max="2" width="23.4285714285714" customWidth="1"/>
+    <col min="4" max="4" width="18.4285714285714" customWidth="1"/>
+    <col min="5" max="5" width="13.5714285714286" customWidth="1"/>
+    <col min="6" max="6" width="13.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" ht="16.5" spans="1:7">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B1" t="s">
-        <v>47</v>
+        <v>49</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" ht="16.5" spans="1:7">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" ht="15.75" spans="1:7">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" ht="15.75" spans="1:7">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>61</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" ht="15.75" spans="4:7">
+      <c r="D5" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/Журнал Заметки.xlsx
+++ b/Журнал Заметки.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="11985" activeTab="1"/>
+    <workbookView windowWidth="28695" windowHeight="11985" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Start room" sheetId="1" r:id="rId1"/>
@@ -239,10 +239,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -282,29 +282,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -326,8 +303,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -349,25 +335,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -375,6 +344,22 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -399,6 +384,21 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -434,12 +434,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -464,30 +458,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -507,30 +477,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -567,6 +513,60 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -619,7 +619,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -834,16 +834,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -872,21 +872,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -908,6 +893,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -918,6 +918,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -933,16 +948,16 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -954,131 +969,131 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1124,9 +1139,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1140,17 +1152,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1172,9 +1178,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -3473,21 +3480,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="22.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="35"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3500,7 +3508,7 @@
   <sheetPr/>
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
@@ -3539,7 +3547,7 @@
       <c r="H1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="33" t="s">
+      <c r="I1" s="30" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3564,7 +3572,7 @@
       <c r="H2" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="34"/>
+      <c r="I2" s="31"/>
     </row>
     <row r="3" ht="26" customHeight="1" spans="1:9">
       <c r="A3" s="14"/>
@@ -3585,7 +3593,7 @@
       <c r="H3" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="34"/>
+      <c r="I3" s="31"/>
     </row>
     <row r="4" ht="26" customHeight="1" spans="1:9">
       <c r="A4" s="14"/>
@@ -3605,8 +3613,8 @@
       <c r="G4" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="19"/>
-      <c r="I4" s="34"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="31"/>
     </row>
     <row r="5" ht="26" customHeight="1" spans="1:9">
       <c r="A5" s="14"/>
@@ -3629,7 +3637,7 @@
       <c r="H5" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="34"/>
+      <c r="I5" s="31"/>
     </row>
     <row r="6" ht="26" customHeight="1" spans="1:9">
       <c r="A6" s="14"/>
@@ -3652,7 +3660,7 @@
       <c r="H6" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="34"/>
+      <c r="I6" s="31"/>
     </row>
     <row r="7" ht="26" customHeight="1" spans="1:9">
       <c r="A7" s="14"/>
@@ -3672,59 +3680,59 @@
       <c r="G7" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="20" t="s">
+      <c r="H7" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="35"/>
+      <c r="I7" s="32"/>
     </row>
     <row r="8" ht="26" customHeight="1" spans="1:9">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22" t="s">
+      <c r="D8" s="21"/>
+      <c r="E8" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="23"/>
-      <c r="G8" s="24" t="s">
+      <c r="F8" s="22"/>
+      <c r="G8" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="25"/>
-      <c r="I8" s="34"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="31"/>
     </row>
     <row r="9" ht="26" customHeight="1" spans="1:9">
       <c r="A9" s="14"/>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="27" t="s">
+      <c r="F9" s="25" t="s">
         <v>29</v>
       </c>
       <c r="G9" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="19"/>
-      <c r="I9" s="34"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="31"/>
     </row>
     <row r="10" ht="26" customHeight="1" spans="1:9">
       <c r="A10" s="14"/>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="24" t="s">
         <v>30</v>
       </c>
       <c r="D10" s="14"/>
@@ -3735,15 +3743,15 @@
       <c r="G10" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="19"/>
-      <c r="I10" s="34"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="31"/>
     </row>
     <row r="11" ht="26" customHeight="1" spans="1:9">
       <c r="A11" s="14"/>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="24" t="s">
         <v>21</v>
       </c>
       <c r="D11" s="14"/>
@@ -3756,15 +3764,15 @@
       <c r="G11" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="19"/>
-      <c r="I11" s="34"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="31"/>
     </row>
     <row r="12" ht="26" customHeight="1" spans="1:9">
       <c r="A12" s="14"/>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="24" t="s">
         <v>23</v>
       </c>
       <c r="D12" s="14"/>
@@ -3777,15 +3785,15 @@
       <c r="G12" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="19"/>
-      <c r="I12" s="34"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="31"/>
     </row>
     <row r="13" ht="26" customHeight="1" spans="1:9">
       <c r="A13" s="14"/>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="24" t="s">
         <v>24</v>
       </c>
       <c r="D13" s="14"/>
@@ -3798,36 +3806,36 @@
       <c r="G13" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="28"/>
-      <c r="I13" s="35"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="32"/>
     </row>
     <row r="14" ht="26" customHeight="1" spans="1:9">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22" t="s">
+      <c r="D14" s="21"/>
+      <c r="E14" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="23"/>
-      <c r="G14" s="24" t="s">
+      <c r="F14" s="22"/>
+      <c r="G14" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="25"/>
-      <c r="I14" s="34"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="31"/>
     </row>
     <row r="15" ht="26" customHeight="1" spans="1:9">
       <c r="A15" s="14"/>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="24" t="s">
         <v>35</v>
       </c>
       <c r="D15" s="14"/>
@@ -3843,14 +3851,14 @@
       <c r="H15" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="34"/>
+      <c r="I15" s="31"/>
     </row>
     <row r="16" ht="26" customHeight="1" spans="1:9">
       <c r="A16" s="14"/>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="24" t="s">
         <v>30</v>
       </c>
       <c r="D16" s="14"/>
@@ -3861,15 +3869,15 @@
       <c r="G16" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="34"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="31"/>
     </row>
     <row r="17" ht="26" customHeight="1" spans="1:9">
       <c r="A17" s="14"/>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D17" s="14"/>
@@ -3880,15 +3888,15 @@
       <c r="G17" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="34"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="31"/>
     </row>
     <row r="18" ht="26" customHeight="1" spans="1:9">
       <c r="A18" s="14"/>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="24" t="s">
         <v>21</v>
       </c>
       <c r="D18" s="14"/>
@@ -3901,15 +3909,15 @@
       <c r="G18" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="34"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="31"/>
     </row>
     <row r="19" ht="26" customHeight="1" spans="1:9">
       <c r="A19" s="14"/>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="24" t="s">
         <v>23</v>
       </c>
       <c r="D19" s="14"/>
@@ -3922,15 +3930,15 @@
       <c r="G19" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="34"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="31"/>
     </row>
     <row r="20" ht="26" customHeight="1" spans="1:9">
       <c r="A20" s="14"/>
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="24" t="s">
         <v>24</v>
       </c>
       <c r="D20" s="14"/>
@@ -3943,38 +3951,38 @@
       <c r="G20" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="H20" s="28"/>
-      <c r="I20" s="35"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="32"/>
     </row>
     <row r="21" ht="26" customHeight="1" spans="1:9">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="C21" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22" t="s">
+      <c r="D21" s="21"/>
+      <c r="E21" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="F21" s="23"/>
-      <c r="G21" s="24" t="s">
+      <c r="F21" s="22"/>
+      <c r="G21" s="23" t="s">
         <v>14</v>
       </c>
       <c r="H21" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="I21" s="34"/>
+      <c r="I21" s="31"/>
     </row>
     <row r="22" ht="26" customHeight="1" spans="1:9">
       <c r="A22" s="14"/>
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="C22" s="24" t="s">
         <v>41</v>
       </c>
       <c r="D22" s="14"/>
@@ -3988,14 +3996,14 @@
       <c r="H22" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="I22" s="34"/>
+      <c r="I22" s="31"/>
     </row>
     <row r="23" ht="26" customHeight="1" spans="1:9">
       <c r="A23" s="14"/>
-      <c r="B23" s="26" t="s">
+      <c r="B23" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="26" t="s">
+      <c r="C23" s="24" t="s">
         <v>43</v>
       </c>
       <c r="D23" s="14"/>
@@ -4009,14 +4017,14 @@
       <c r="H23" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="I23" s="34"/>
+      <c r="I23" s="31"/>
     </row>
     <row r="24" ht="26" customHeight="1" spans="1:9">
       <c r="A24" s="14"/>
-      <c r="B24" s="26" t="s">
+      <c r="B24" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="26" t="s">
+      <c r="C24" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D24" s="14"/>
@@ -4027,96 +4035,96 @@
       <c r="G24" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="34"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="31"/>
     </row>
     <row r="25" ht="26" customHeight="1" spans="1:9">
       <c r="A25" s="14"/>
-      <c r="B25" s="26" t="s">
+      <c r="B25" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="26" t="s">
+      <c r="C25" s="24" t="s">
         <v>21</v>
       </c>
       <c r="D25" s="14"/>
       <c r="E25" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="F25" s="29" t="s">
+      <c r="F25" s="26" t="s">
         <v>19</v>
       </c>
       <c r="G25" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="34"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="31"/>
     </row>
     <row r="26" ht="26" customHeight="1" spans="1:9">
       <c r="A26" s="14"/>
-      <c r="B26" s="26" t="s">
+      <c r="B26" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="26" t="s">
+      <c r="C26" s="24" t="s">
         <v>23</v>
       </c>
       <c r="D26" s="14"/>
       <c r="E26" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="F26" s="29" t="s">
+      <c r="F26" s="26" t="s">
         <v>19</v>
       </c>
       <c r="G26" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="34"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="31"/>
     </row>
     <row r="27" ht="26" customHeight="1" spans="1:9">
       <c r="A27" s="14"/>
-      <c r="B27" s="26" t="s">
+      <c r="B27" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="26" t="s">
+      <c r="C27" s="24" t="s">
         <v>24</v>
       </c>
       <c r="D27" s="14"/>
       <c r="E27" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="F27" s="29" t="s">
+      <c r="F27" s="26" t="s">
         <v>19</v>
       </c>
       <c r="G27" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="H27" s="28"/>
-      <c r="I27" s="35"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="32"/>
     </row>
     <row r="28" ht="26" customHeight="1" spans="1:9">
-      <c r="A28" s="21" t="s">
+      <c r="A28" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="B28" s="21" t="s">
+      <c r="B28" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="21" t="s">
+      <c r="C28" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22" t="s">
+      <c r="D28" s="21"/>
+      <c r="E28" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="F28" s="30" t="s">
+      <c r="F28" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="G28" s="31" t="s">
+      <c r="G28" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="H28" s="32" t="s">
+      <c r="H28" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="I28" s="36"/>
+      <c r="I28" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4136,8 +4144,8 @@
   <sheetPr/>
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>

--- a/Журнал Заметки.xlsx
+++ b/Журнал Заметки.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60">
   <si>
     <t>Добавить музыку</t>
   </si>
@@ -162,76 +162,53 @@
     <t>Облака</t>
   </si>
   <si>
-    <t>меньше монстров ур.1</t>
-  </si>
-  <si>
-    <t>Больше денег ур.1</t>
-  </si>
-  <si>
-    <t>наименование</t>
-  </si>
-  <si>
-    <t>отображение</t>
-  </si>
-  <si>
-    <t>релиз в коде</t>
-  </si>
-  <si>
-    <t>баланс</t>
-  </si>
-  <si>
-    <t>меньше монстров ур.2</t>
-  </si>
-  <si>
-    <t>Больше денег ур.2</t>
-  </si>
-  <si>
-    <t>меньше монстров</t>
-  </si>
-  <si>
-    <t>меньше монстров ур.3</t>
-  </si>
-  <si>
-    <t>Больше денег ур.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">больше денег </t>
-  </si>
-  <si>
-    <t>меньше монстров ур.4</t>
-  </si>
-  <si>
-    <t>Больше денег ур.4</t>
-  </si>
-  <si>
-    <t>бстрее шарик</t>
-  </si>
-  <si>
-    <t xml:space="preserve">больше сердец </t>
-  </si>
-  <si>
-    <t>бстрее шарик ур.1</t>
-  </si>
-  <si>
-    <t>больше сердец ур.1</t>
-  </si>
-  <si>
-    <t>бстрее шарик ур.2</t>
-  </si>
-  <si>
-    <t>больше сердец ур.2</t>
-  </si>
-  <si>
-    <t>бстрее шарик ур.3</t>
-  </si>
-  <si>
-    <t>больше сердец ур.3</t>
-  </si>
-  <si>
-    <t>бстрее шарик ур.4</t>
-  </si>
-  <si>
-    <t>больше сердец ур.4</t>
+    <t>Базовый прогресс</t>
+  </si>
+  <si>
+    <t>Деньги</t>
+  </si>
+  <si>
+    <t>Less Monst</t>
+  </si>
+  <si>
+    <t>Speed</t>
+  </si>
+  <si>
+    <t>Money make</t>
+  </si>
+  <si>
+    <t>Hels</t>
+  </si>
+  <si>
+    <t>Высота = х (Фибоначи)</t>
+  </si>
+  <si>
+    <t>м=х*3</t>
+  </si>
+  <si>
+    <t>m*3</t>
+  </si>
+  <si>
+    <t>m*4</t>
+  </si>
+  <si>
+    <t>m*2</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">             </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">            Финальный рывок</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -244,7 +221,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -255,6 +232,13 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -424,13 +408,27 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -619,7 +617,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="42">
     <border>
       <left/>
       <right/>
@@ -628,16 +626,73 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
+      <left style="medium">
         <color auto="1"/>
       </left>
-      <right style="thick">
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
         <color auto="1"/>
       </right>
-      <top style="thick">
+      <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom style="thick">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -656,13 +711,181 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color auto="1"/>
       </left>
       <right style="medium">
         <color auto="1"/>
       </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
         <color auto="1"/>
       </top>
       <bottom style="medium">
@@ -700,6 +923,21 @@
     </border>
     <border>
       <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color rgb="FF000000"/>
       </left>
       <right style="medium">
@@ -724,19 +962,6 @@
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
         <color rgb="FF000000"/>
       </left>
       <right style="medium">
@@ -751,17 +976,6 @@
         <color rgb="FF000000"/>
       </left>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -828,21 +1042,6 @@
       </right>
       <top/>
       <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -948,16 +1147,16 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -969,219 +1168,275 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="38" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -3492,10 +3747,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
+      <c r="B1" s="61"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3517,614 +3772,614 @@
     <col min="1" max="1" width="11.2857142857143" customWidth="1"/>
     <col min="2" max="2" width="14.2857142857143" customWidth="1"/>
     <col min="3" max="3" width="17.4285714285714" customWidth="1"/>
-    <col min="6" max="6" width="18.4857142857143" style="4" customWidth="1"/>
-    <col min="7" max="7" width="9.14285714285714" style="4"/>
+    <col min="6" max="6" width="18.4857142857143" style="30" customWidth="1"/>
+    <col min="7" max="7" width="9.14285714285714" style="30"/>
     <col min="8" max="8" width="9.36190476190476" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="31.5" spans="1:9">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="I1" s="56" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" ht="26" customHeight="1" spans="1:9">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10" t="s">
+      <c r="D2" s="36"/>
+      <c r="E2" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="11"/>
-      <c r="G2" s="12" t="s">
+      <c r="F2" s="37"/>
+      <c r="G2" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="31"/>
+      <c r="I2" s="57"/>
     </row>
     <row r="3" ht="26" customHeight="1" spans="1:9">
-      <c r="A3" s="14"/>
-      <c r="B3" s="15" t="s">
+      <c r="A3" s="40"/>
+      <c r="B3" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14" t="s">
+      <c r="D3" s="40"/>
+      <c r="E3" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="16"/>
-      <c r="G3" s="17" t="s">
+      <c r="F3" s="42"/>
+      <c r="G3" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="31"/>
+      <c r="I3" s="57"/>
     </row>
     <row r="4" ht="26" customHeight="1" spans="1:9">
-      <c r="A4" s="14"/>
-      <c r="B4" s="15" t="s">
+      <c r="A4" s="40"/>
+      <c r="B4" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14" t="s">
+      <c r="D4" s="40"/>
+      <c r="E4" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="18"/>
-      <c r="I4" s="31"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="57"/>
     </row>
     <row r="5" ht="26" customHeight="1" spans="1:9">
-      <c r="A5" s="14"/>
-      <c r="B5" s="15" t="s">
+      <c r="A5" s="40"/>
+      <c r="B5" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14" t="s">
+      <c r="D5" s="40"/>
+      <c r="E5" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="H5" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="31"/>
+      <c r="I5" s="57"/>
     </row>
     <row r="6" ht="26" customHeight="1" spans="1:9">
-      <c r="A6" s="14"/>
-      <c r="B6" s="15" t="s">
+      <c r="A6" s="40"/>
+      <c r="B6" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14" t="s">
+      <c r="D6" s="40"/>
+      <c r="E6" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="18" t="s">
+      <c r="H6" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="31"/>
+      <c r="I6" s="57"/>
     </row>
     <row r="7" ht="26" customHeight="1" spans="1:9">
-      <c r="A7" s="14"/>
-      <c r="B7" s="15" t="s">
+      <c r="A7" s="40"/>
+      <c r="B7" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14" t="s">
+      <c r="D7" s="40"/>
+      <c r="E7" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="G7" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="19" t="s">
+      <c r="H7" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="32"/>
+      <c r="I7" s="58"/>
     </row>
     <row r="8" ht="26" customHeight="1" spans="1:9">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21" t="s">
+      <c r="D8" s="47"/>
+      <c r="E8" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="22"/>
-      <c r="G8" s="23" t="s">
+      <c r="F8" s="48"/>
+      <c r="G8" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="13"/>
-      <c r="I8" s="31"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="57"/>
     </row>
     <row r="9" ht="26" customHeight="1" spans="1:9">
-      <c r="A9" s="14"/>
-      <c r="B9" s="24" t="s">
+      <c r="A9" s="40"/>
+      <c r="B9" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14" t="s">
+      <c r="D9" s="40"/>
+      <c r="E9" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="25" t="s">
+      <c r="F9" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="18"/>
-      <c r="I9" s="31"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="57"/>
     </row>
     <row r="10" ht="26" customHeight="1" spans="1:9">
-      <c r="A10" s="14"/>
-      <c r="B10" s="24" t="s">
+      <c r="A10" s="40"/>
+      <c r="B10" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14" t="s">
+      <c r="D10" s="40"/>
+      <c r="E10" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="16"/>
-      <c r="G10" s="17" t="s">
+      <c r="F10" s="42"/>
+      <c r="G10" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="18"/>
-      <c r="I10" s="31"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="57"/>
     </row>
     <row r="11" ht="26" customHeight="1" spans="1:9">
-      <c r="A11" s="14"/>
-      <c r="B11" s="24" t="s">
+      <c r="A11" s="40"/>
+      <c r="B11" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14" t="s">
+      <c r="D11" s="40"/>
+      <c r="E11" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="G11" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="18"/>
-      <c r="I11" s="31"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="57"/>
     </row>
     <row r="12" ht="26" customHeight="1" spans="1:9">
-      <c r="A12" s="14"/>
-      <c r="B12" s="24" t="s">
+      <c r="A12" s="40"/>
+      <c r="B12" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14" t="s">
+      <c r="D12" s="40"/>
+      <c r="E12" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="17" t="s">
+      <c r="G12" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="18"/>
-      <c r="I12" s="31"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="57"/>
     </row>
     <row r="13" ht="26" customHeight="1" spans="1:9">
-      <c r="A13" s="14"/>
-      <c r="B13" s="24" t="s">
+      <c r="A13" s="40"/>
+      <c r="B13" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14" t="s">
+      <c r="D13" s="40"/>
+      <c r="E13" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="F13" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="G13" s="17" t="s">
+      <c r="G13" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="19"/>
-      <c r="I13" s="32"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="58"/>
     </row>
     <row r="14" ht="26" customHeight="1" spans="1:9">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21" t="s">
+      <c r="D14" s="47"/>
+      <c r="E14" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="22"/>
-      <c r="G14" s="23" t="s">
+      <c r="F14" s="48"/>
+      <c r="G14" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="13"/>
-      <c r="I14" s="31"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="57"/>
     </row>
     <row r="15" ht="26" customHeight="1" spans="1:9">
-      <c r="A15" s="14"/>
-      <c r="B15" s="24" t="s">
+      <c r="A15" s="40"/>
+      <c r="B15" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14" t="s">
+      <c r="D15" s="40"/>
+      <c r="E15" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="16" t="s">
+      <c r="F15" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="17" t="s">
+      <c r="G15" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="H15" s="18" t="s">
+      <c r="H15" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="31"/>
+      <c r="I15" s="57"/>
     </row>
     <row r="16" ht="26" customHeight="1" spans="1:9">
-      <c r="A16" s="14"/>
-      <c r="B16" s="24" t="s">
+      <c r="A16" s="40"/>
+      <c r="B16" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14" t="s">
+      <c r="D16" s="40"/>
+      <c r="E16" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="F16" s="16"/>
-      <c r="G16" s="17" t="s">
+      <c r="F16" s="42"/>
+      <c r="G16" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="H16" s="18"/>
-      <c r="I16" s="31"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="57"/>
     </row>
     <row r="17" ht="26" customHeight="1" spans="1:9">
-      <c r="A17" s="14"/>
-      <c r="B17" s="24" t="s">
+      <c r="A17" s="40"/>
+      <c r="B17" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="C17" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14" t="s">
+      <c r="D17" s="40"/>
+      <c r="E17" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="16"/>
-      <c r="G17" s="17" t="s">
+      <c r="F17" s="42"/>
+      <c r="G17" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="H17" s="18"/>
-      <c r="I17" s="31"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="57"/>
     </row>
     <row r="18" ht="26" customHeight="1" spans="1:9">
-      <c r="A18" s="14"/>
-      <c r="B18" s="24" t="s">
+      <c r="A18" s="40"/>
+      <c r="B18" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14" t="s">
+      <c r="D18" s="40"/>
+      <c r="E18" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="16" t="s">
+      <c r="F18" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="G18" s="17" t="s">
+      <c r="G18" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="H18" s="18"/>
-      <c r="I18" s="31"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="57"/>
     </row>
     <row r="19" ht="26" customHeight="1" spans="1:9">
-      <c r="A19" s="14"/>
-      <c r="B19" s="24" t="s">
+      <c r="A19" s="40"/>
+      <c r="B19" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14" t="s">
+      <c r="D19" s="40"/>
+      <c r="E19" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="16" t="s">
+      <c r="F19" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="G19" s="17" t="s">
+      <c r="G19" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="H19" s="18"/>
-      <c r="I19" s="31"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="57"/>
     </row>
     <row r="20" ht="26" customHeight="1" spans="1:9">
-      <c r="A20" s="14"/>
-      <c r="B20" s="24" t="s">
+      <c r="A20" s="40"/>
+      <c r="B20" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="C20" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14" t="s">
+      <c r="D20" s="40"/>
+      <c r="E20" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="F20" s="16" t="s">
+      <c r="F20" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="G20" s="17" t="s">
+      <c r="G20" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="32"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="58"/>
     </row>
     <row r="21" ht="26" customHeight="1" spans="1:9">
-      <c r="A21" s="20" t="s">
+      <c r="A21" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21" t="s">
+      <c r="D21" s="47"/>
+      <c r="E21" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="F21" s="22"/>
-      <c r="G21" s="23" t="s">
+      <c r="F21" s="48"/>
+      <c r="G21" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="H21" s="13" t="s">
+      <c r="H21" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="I21" s="31"/>
+      <c r="I21" s="57"/>
     </row>
     <row r="22" ht="26" customHeight="1" spans="1:9">
-      <c r="A22" s="14"/>
-      <c r="B22" s="24" t="s">
+      <c r="A22" s="40"/>
+      <c r="B22" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14" t="s">
+      <c r="D22" s="40"/>
+      <c r="E22" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="16"/>
-      <c r="G22" s="17" t="s">
+      <c r="F22" s="42"/>
+      <c r="G22" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="H22" s="18" t="s">
+      <c r="H22" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="I22" s="31"/>
+      <c r="I22" s="57"/>
     </row>
     <row r="23" ht="26" customHeight="1" spans="1:9">
-      <c r="A23" s="14"/>
-      <c r="B23" s="24" t="s">
+      <c r="A23" s="40"/>
+      <c r="B23" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="24" t="s">
+      <c r="C23" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14" t="s">
+      <c r="D23" s="40"/>
+      <c r="E23" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="F23" s="16"/>
-      <c r="G23" s="17" t="s">
+      <c r="F23" s="42"/>
+      <c r="G23" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="H23" s="18" t="s">
+      <c r="H23" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="I23" s="31"/>
+      <c r="I23" s="57"/>
     </row>
     <row r="24" ht="26" customHeight="1" spans="1:9">
-      <c r="A24" s="14"/>
-      <c r="B24" s="24" t="s">
+      <c r="A24" s="40"/>
+      <c r="B24" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="24" t="s">
+      <c r="C24" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14" t="s">
+      <c r="D24" s="40"/>
+      <c r="E24" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="F24" s="16"/>
-      <c r="G24" s="17" t="s">
+      <c r="F24" s="42"/>
+      <c r="G24" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="H24" s="18"/>
-      <c r="I24" s="31"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="57"/>
     </row>
     <row r="25" ht="26" customHeight="1" spans="1:9">
-      <c r="A25" s="14"/>
-      <c r="B25" s="24" t="s">
+      <c r="A25" s="40"/>
+      <c r="B25" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="24" t="s">
+      <c r="C25" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14" t="s">
+      <c r="D25" s="40"/>
+      <c r="E25" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="F25" s="26" t="s">
+      <c r="F25" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="G25" s="17" t="s">
+      <c r="G25" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="H25" s="18"/>
-      <c r="I25" s="31"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="57"/>
     </row>
     <row r="26" ht="26" customHeight="1" spans="1:9">
-      <c r="A26" s="14"/>
-      <c r="B26" s="24" t="s">
+      <c r="A26" s="40"/>
+      <c r="B26" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="24" t="s">
+      <c r="C26" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14" t="s">
+      <c r="D26" s="40"/>
+      <c r="E26" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="F26" s="26" t="s">
+      <c r="F26" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="G26" s="17" t="s">
+      <c r="G26" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="H26" s="18"/>
-      <c r="I26" s="31"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="57"/>
     </row>
     <row r="27" ht="26" customHeight="1" spans="1:9">
-      <c r="A27" s="14"/>
-      <c r="B27" s="24" t="s">
+      <c r="A27" s="40"/>
+      <c r="B27" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="24" t="s">
+      <c r="C27" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14" t="s">
+      <c r="D27" s="40"/>
+      <c r="E27" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="F27" s="26" t="s">
+      <c r="F27" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="G27" s="17" t="s">
+      <c r="G27" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="32"/>
+      <c r="H27" s="45"/>
+      <c r="I27" s="58"/>
     </row>
     <row r="28" ht="26" customHeight="1" spans="1:9">
-      <c r="A28" s="20" t="s">
+      <c r="A28" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="20" t="s">
+      <c r="C28" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21" t="s">
+      <c r="D28" s="47"/>
+      <c r="E28" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="F28" s="27" t="s">
+      <c r="F28" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="G28" s="28" t="s">
+      <c r="G28" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="H28" s="29" t="s">
+      <c r="H28" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="I28" s="33"/>
+      <c r="I28" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4142,124 +4397,324 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="L10" sqref="L9:L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="23.4285714285714" customWidth="1"/>
-    <col min="4" max="4" width="18.4285714285714" customWidth="1"/>
-    <col min="5" max="5" width="13.5714285714286" customWidth="1"/>
-    <col min="6" max="6" width="13.7142857142857" customWidth="1"/>
+    <col min="1" max="1" width="22.4285714285714" customWidth="1"/>
+    <col min="2" max="2" width="12.4285714285714" customWidth="1"/>
+    <col min="3" max="3" width="12.1428571428571" customWidth="1"/>
+    <col min="5" max="5" width="13.4285714285714" customWidth="1"/>
+    <col min="6" max="6" width="11.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:7">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" ht="16.5" spans="1:7">
-      <c r="A2" t="s">
+    <row r="2" ht="15.75" spans="1:6">
+      <c r="A2" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
+      <c r="D2" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="3" ht="15.75" spans="1:7">
-      <c r="A3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D3" s="3" t="s">
+    <row r="3" ht="15.75" spans="1:6">
+      <c r="A3" s="11">
+        <v>0</v>
+      </c>
+      <c r="B3" s="11">
+        <f>A3*3</f>
+        <v>0</v>
+      </c>
+      <c r="C3" s="12">
+        <v>2000</v>
+      </c>
+      <c r="D3" s="13">
+        <f>$B5*4</f>
+        <v>2400</v>
+      </c>
+      <c r="E3" s="13">
+        <f>$B5*3</f>
+        <v>1800</v>
+      </c>
+      <c r="F3" s="14">
+        <f>$B5*2</f>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="4" ht="15.75" spans="1:6">
+      <c r="A4" s="15">
+        <v>100</v>
+      </c>
+      <c r="B4" s="15">
+        <f t="shared" ref="B4:B15" si="0">A4*3</f>
+        <v>300</v>
+      </c>
+      <c r="C4" s="16"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="18"/>
+    </row>
+    <row r="5" ht="16.5" spans="1:6">
+      <c r="A5" s="15">
+        <v>200</v>
+      </c>
+      <c r="B5" s="19">
+        <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
+      <c r="C5" s="20"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="22"/>
+    </row>
+    <row r="6" ht="15.75" spans="1:6">
+      <c r="A6" s="15">
+        <v>300</v>
+      </c>
+      <c r="B6" s="15">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+      <c r="C6" s="16">
+        <f>$B7*3</f>
+        <v>4500</v>
+      </c>
+      <c r="D6" s="17">
+        <f>$B7*4</f>
+        <v>6000</v>
+      </c>
+      <c r="E6" s="17">
+        <f>$B7*3</f>
+        <v>4500</v>
+      </c>
+      <c r="F6" s="18">
+        <f>$B7*2</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="7" ht="16.5" spans="1:6">
+      <c r="A7" s="15">
+        <f>A5+A6</f>
+        <v>500</v>
+      </c>
+      <c r="B7" s="19">
+        <f t="shared" si="0"/>
+        <v>1500</v>
+      </c>
+      <c r="C7" s="20"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="22"/>
+    </row>
+    <row r="8" ht="15.75" spans="1:6">
+      <c r="A8" s="15">
+        <f t="shared" ref="A8:A17" si="1">A6+A7</f>
+        <v>800</v>
+      </c>
+      <c r="B8" s="15">
+        <f t="shared" si="0"/>
+        <v>2400</v>
+      </c>
+      <c r="C8" s="16">
+        <f>$B9*3</f>
+        <v>11700</v>
+      </c>
+      <c r="D8" s="17">
+        <f>$B9*4</f>
+        <v>15600</v>
+      </c>
+      <c r="E8" s="17">
+        <f>$B9*3</f>
+        <v>11700</v>
+      </c>
+      <c r="F8" s="18">
+        <f>$B9*2</f>
+        <v>7800</v>
+      </c>
+    </row>
+    <row r="9" ht="16.5" spans="1:6">
+      <c r="A9" s="15">
+        <f t="shared" si="1"/>
+        <v>1300</v>
+      </c>
+      <c r="B9" s="19">
+        <f t="shared" si="0"/>
+        <v>3900</v>
+      </c>
+      <c r="C9" s="20"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="22"/>
+    </row>
+    <row r="10" ht="15.75" spans="1:6">
+      <c r="A10" s="15">
+        <f t="shared" si="1"/>
+        <v>2100</v>
+      </c>
+      <c r="B10" s="15">
+        <f t="shared" si="0"/>
+        <v>6300</v>
+      </c>
+      <c r="C10" s="16">
+        <f>$B11*3</f>
+        <v>30600</v>
+      </c>
+      <c r="D10" s="17">
+        <f>$B11*4</f>
+        <v>40800</v>
+      </c>
+      <c r="E10" s="17">
+        <f>$B11*3</f>
+        <v>30600</v>
+      </c>
+      <c r="F10" s="18">
+        <f>$B11*2</f>
+        <v>20400</v>
+      </c>
+    </row>
+    <row r="11" ht="16.5" spans="1:6">
+      <c r="A11" s="15">
+        <f t="shared" si="1"/>
+        <v>3400</v>
+      </c>
+      <c r="B11" s="19">
+        <f t="shared" si="0"/>
+        <v>10200</v>
+      </c>
+      <c r="C11" s="20"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="22"/>
+    </row>
+    <row r="12" ht="15.75" spans="1:6">
+      <c r="A12" s="15">
+        <f t="shared" si="1"/>
+        <v>5500</v>
+      </c>
+      <c r="B12" s="15">
+        <f t="shared" si="0"/>
+        <v>16500</v>
+      </c>
+      <c r="C12" s="16">
+        <f>$B13*3</f>
+        <v>80100</v>
+      </c>
+      <c r="D12" s="17">
+        <f>$B13*4</f>
+        <v>106800</v>
+      </c>
+      <c r="E12" s="17">
+        <f>$B13*3</f>
+        <v>80100</v>
+      </c>
+      <c r="F12" s="18">
+        <f>$B13*2</f>
+        <v>53400</v>
+      </c>
+    </row>
+    <row r="13" ht="16.5" spans="1:6">
+      <c r="A13" s="15">
+        <f t="shared" si="1"/>
+        <v>8900</v>
+      </c>
+      <c r="B13" s="19">
+        <f t="shared" si="0"/>
+        <v>26700</v>
+      </c>
+      <c r="C13" s="20"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="22"/>
+    </row>
+    <row r="14" ht="15.75" spans="1:6">
+      <c r="A14" s="15">
+        <f t="shared" si="1"/>
+        <v>14400</v>
+      </c>
+      <c r="B14" s="15">
+        <f t="shared" si="0"/>
+        <v>43200</v>
+      </c>
+      <c r="C14" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="25"/>
     </row>
-    <row r="4" ht="15.75" spans="1:7">
-      <c r="A4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" ht="15.75" spans="4:7">
-      <c r="D5" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B9" t="s">
-        <v>71</v>
-      </c>
+    <row r="15" ht="16.5" spans="1:6">
+      <c r="A15" s="26">
+        <f t="shared" si="1"/>
+        <v>23300</v>
+      </c>
+      <c r="B15" s="26">
+        <f t="shared" si="0"/>
+        <v>69900</v>
+      </c>
+      <c r="C15" s="27"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="29"/>
     </row>
   </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="C14:F15"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
